--- a/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
+++ b/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21412"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_13D8879CE9E8A8D0E6DFF6269CD7669FDD860BC7" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{8B91F50C-0520-473D-9DB9-442068E76753}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\VBDR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="VBDR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -32,69 +28,66 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Vehcile buyer discount rates vary tremendously by study.</t>
+  </si>
+  <si>
+    <t>The meta-analysis cited here includes studies that have found</t>
+  </si>
+  <si>
+    <t>discount rates as low as 0.2% and as high as 77% per year.</t>
+  </si>
+  <si>
+    <t>The implied discount rate is sensitive to numerous assumptions</t>
+  </si>
+  <si>
+    <t>the underlying studies might make, such as what lifetime</t>
+  </si>
+  <si>
+    <t>or future fuel price consumers are expecting.  Accordingly,</t>
+  </si>
+  <si>
+    <t>there is no consensus on what a reasonable discount rate</t>
+  </si>
+  <si>
+    <t>might be.</t>
+  </si>
+  <si>
+    <t>We use a 7% discount rate, because this is the rate the</t>
+  </si>
+  <si>
+    <t>EPA chose to use (without endorsing this rate) for</t>
+  </si>
+  <si>
+    <t>We use this rate for all vehicle types, since uncertainty</t>
+  </si>
+  <si>
+    <t>in the rate itself overwhelms any possible differences</t>
+  </si>
+  <si>
+    <t>in behavior between (say) an individual car-buyer and</t>
+  </si>
+  <si>
+    <t>a company that purchases trucks.</t>
+  </si>
+  <si>
+    <t>various calculations throughout their report.  (See p. 63.)</t>
+  </si>
+  <si>
     <t>U.S. EPA</t>
   </si>
   <si>
     <t>How Consumers Value Fuel Economy: A Literature Review</t>
   </si>
   <si>
+    <t>Page 63 (see Notes below)</t>
+  </si>
+  <si>
     <t>https://nepis.epa.gov/Exe/ZyNET.exe/P1006V0O.txt?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006%20Thru%202010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;UseQField=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5CZYFILES%5CINDEX%20DATA%5C06THRU10%5CTXT%5C00000016%5CP1006V0O.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=2#</t>
   </si>
   <si>
-    <t>Page 63 (see Notes below)</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Vehicle buyer discount rates vary tremendously by study.</t>
-  </si>
-  <si>
-    <t>The meta-analysis cited here includes studies that have found</t>
-  </si>
-  <si>
-    <t>discount rates as low as 0.2% and as high as 77% per year.</t>
-  </si>
-  <si>
-    <t>The implied discount rate is sensitive to numerous assumptions</t>
-  </si>
-  <si>
-    <t>the underlying studies might make, such as what lifetime</t>
-  </si>
-  <si>
-    <t>or future fuel price consumers are expecting.  Accordingly,</t>
-  </si>
-  <si>
-    <t>there is no consensus on what a reasonable discount rate</t>
-  </si>
-  <si>
-    <t>might be.</t>
-  </si>
-  <si>
-    <t>We use a 7% discount rate, because this is the rate the</t>
-  </si>
-  <si>
-    <t>EPA chose to use (without endorsing this rate) for</t>
-  </si>
-  <si>
-    <t>various calculations throughout their report.  (See p. 63.)</t>
-  </si>
-  <si>
-    <t>We use this rate for all vehicle types, since uncertainty</t>
-  </si>
-  <si>
-    <t>in the rate itself overwhelms any possible differences</t>
-  </si>
-  <si>
-    <t>in behavior between (say) an individual car-buyer and</t>
-  </si>
-  <si>
-    <t>a company that purchases trucks.</t>
-  </si>
-  <si>
-    <t>Discount Rate</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -112,12 +105,15 @@
   <si>
     <t>motorbikes</t>
   </si>
+  <si>
+    <t>Discount Rate (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,23 +249,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -305,23 +284,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,126 +459,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -626,67 +586,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>23</v>
       </c>
       <c r="B2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>7.0000000000000007E-2</v>
@@ -698,15 +660,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -940,6 +893,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -950,13 +912,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A451B53-F2BD-4DED-99D6-117F0EB2F4E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C12FB1E2-061E-4297-82F6-418E0EE31654}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E9237E-8A17-4E22-99F5-83467D6EEBA8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A34DFC61-7798-4F3A-814E-9296A2107DF7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C61B0132-6839-431C-93CF-B55617D43BCD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAA9274D-6878-4BFB-9351-18CAD3A05833}"/>
 </file>